--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -11412,6 +11412,846 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- Tensorflow Operation of GPU speed up.
+- ProgrammingIndex by PyQT.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Android 8.1 for WLAN ans WWAN of airplane mode
+- Auto Installation by PXE Server static ip address.
+- Tensorflow Operation of GPU speed up.
+- ProgrammingIndex by PyQT.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Android 8.1 for WLAN ans WWAN of airplane mode
+- Auto Installation by PXE Server static ip address.
+- Tensorflow Operation of GPU speed up.
+- ProgrammingIndex by PyQT.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/04~2019/11/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/11~2019/11/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/18~2019/11/22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/25~2019/11/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Implement the wlan of ethernet and wwan of multi airplane base on Android 8.1. (10/28)
+- Implement the wlan of ethernet and wwan of multi airplane base on Android 8.1. (10/29)
+- Research the Tensorflow Operation of GPU speed up. (10/30~11/01)
+- Anaconda the visual space by the tensorflw-gpu and python 3.5.0 edition. (10/30)
+- Resolved the NVIDIA graphics driver installation error. (10/31)
+- Installation the CUDA 8.0 problem. (11/01)
+- Discusstion the CUDA 8.0 and Geforce GTX 1600 display card error. (11/01)
+- Discusstion the ROCm for AMD GPU performance. (10/31~11/01)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -11576,843 +12416,8 @@
 - Implement the sop of the PXE's Legacy base on x64 execution testing process. (10/22)
 - Implement the sop of the PXE's environment setting by auto testing parameter of xml files. (10/23)
 - Merge the pxe folder and xml file to git server and mantain the test process. (10/23)
-- Implement the wlan of ethernet and wlan of single airplane. (10/24)
-- Implement the wlan of ethernet and wlan of single airplane. (10/25)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- Tensorflow Operation of GPU speed up.
-- ProgrammingIndex by PyQT.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Android 8.1 for WLAN ans WWAN of airplane mode
-- Auto Installation by PXE Server static ip address.
-- Tensorflow Operation of GPU speed up.
-- ProgrammingIndex by PyQT.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Android 8.1 for WLAN ans WWAN of airplane mode
-- Auto Installation by PXE Server static ip address.
-- Tensorflow Operation of GPU speed up.
-- ProgrammingIndex by PyQT.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/04~2019/11/08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/11~2019/11/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/18~2019/11/22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/25~2019/11/29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Implement the wlan of ethernet and wwan of multi airplane. (10/28)
-- Implement the wlan of ethernet and wwan of multi airplane. (10/29)
-- Research the Tensorflow Operation of GPU speed up. (10/30~11/01)</t>
+- Implement the wlan of ethernet and wlan of single airplane base on Android 8.1. (10/24)
+- Implement the wlan of ethernet and wlan of single airplane base on Android 8.1. (10/25)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13096,7 +13101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13174,10 +13181,10 @@
         <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -13186,10 +13193,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -13204,7 +13211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13241,10 +13248,10 @@
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>152</v>
@@ -13253,37 +13260,37 @@
     </row>
     <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D6" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11526,129 +11526,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- Tensorflow Operation of GPU speed up.
-- ProgrammingIndex by PyQT.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 - Android 8.1 for WLAN ans WWAN of airplane mode
 - Auto Installation by PXE Server static ip address.
 - Tensorflow Operation of GPU speed up.
@@ -12422,6 +12299,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11/04 Take day off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- Tensorflow by MXX of GPU speed up. (Pending)
+- ProgrammingIndex by PyQT.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -12580,9 +12584,173 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Research the PXE's more cycle full auto test. (11/02)
-- WDS log Analysis. (11/03)
-- OS (UEFI、Legacy 32bit, Lagecy 64bit) More login mothodology. (11/04)</t>
+      <t>- Install the three partition operation system of windows 2012 center R2. (11/05)
+- Setting the WDS environment for UEFI of x64 and Legary of x86, x64. (11/06)
+- Implement the WDS log counter. (11/07)
+- Color Sensor by arduino for auto reboot setting. (11/08)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- USM-210 windows airplane mode</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13101,8 +13269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13181,10 +13349,10 @@
         <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -13193,10 +13361,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -13211,8 +13379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13248,49 +13416,51 @@
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D6" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12304,6 +12304,472 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E. Other
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- To execute the USM-210 windows airplane mode for auto test. (11/05)
+- Understand the MXX of GPU base on "SG" external display card by BIOS setting. (11/05)
+- Clarify the problem of USM-210, because the LTE module is crashed. (Pass/Fail: 603/397) (11/06) 
+- Clarify the Widows only disable airplane mode problem. (11/06)
+- Implemnet the three partition operation system of windows 2012 center R2. (11/06~11/07)
+- Research the Color Sensor by arduino for auto reboot setting. (11/06~11/07)
+- Discuss the windows domain setting. (11/07)
+- Make sure the ProgrammIndex program excution and build the FTP server to recheck the tools could be works or not. (11/07)
+- To understand the windows domain, DHCP, WDS and FTP environment setting. (11/08)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Setting and installing the Windows domain, DHCP, WDS, FTP environment for UEFI of x64. (11/11)
+- Setting and installing the Windows domain, DHCP, WDS, FTP environment for Legacy of x64. (11/12)
+- Setting and installing the Windows domain, DHCP, WDS, FTP environment for Legary of x86. (11/12)
+- ProgramIndex tool of research. (11/12~11/13)
+- Implement the arduino intergration with PXE auto installation methodology. (11/12)
+- Prepare the personal report. (11/12~11/13)
+- Writing the SOP of pxe full auto test automation. (11/13)
+- Research the PassMark for BurnInTest tool reliability. (11/14~11/15)
+- Research the ProgramIndex "No find" file or folder problem. (11/14~11/15)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- Tensorflow by MXX of GPU speed up. (Pending)
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">A. Ongoing Project
 </t>
     </r>
@@ -12572,37 +13038,51 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">E. Other
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Install the three partition operation system of windows 2012 center R2. (11/05)
-- Setting the WDS environment for UEFI of x64 and Legary of x86, x64. (11/06)
-- Implement the WDS log counter. (11/07)
-- Color Sensor by arduino for auto reboot setting. (11/08)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
 </t>
     </r>
     <r>
@@ -12627,7 +13107,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-B. Ongoing Project
+C. Report
 </t>
     </r>
     <r>
@@ -12644,113 +13124,56 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- USM-210 windows airplane mode</t>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.
+- CI Sourcing.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13379,15 +13802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="88.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="105.375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.125" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9" style="10"/>
   </cols>
@@ -13419,10 +13840,10 @@
         <v>143</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>151</v>
@@ -13433,10 +13854,10 @@
         <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -13445,10 +13866,10 @@
         <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -12475,6 +12475,377 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- Tensorflow by MXX of GPU speed up. (Pending)
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- Tensorflow by MXX of GPU speed up. (Pending)
+- ProgrammingIndex by PyQT.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.
+- CI Sourcing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -12646,253 +13017,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- Tensorflow by MXX of GPU speed up. (Pending)
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest reliability.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- Tensorflow by MXX of GPU speed up. (Pending)
-- ProgrammingIndex by PyQT.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -13050,130 +13174,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest reliability.
-- Mechanical arm AutoIT method.
-- CI Sourcing.</t>
+- Implement the catch code of WDS log from PXE Server. (11/18~11/20)
+- BurnInTest Research. (11/18~11/19)
+- ProgramIndex Research. (11/20~11/22)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13840,7 +13843,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>152</v>
@@ -13854,10 +13857,10 @@
         <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -13866,10 +13869,10 @@
         <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11833,289 +11833,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 - Implement the wlan of ethernet and wwan of multi airplane base on Android 8.1. (10/28)
 - Implement the wlan of ethernet and wwan of multi airplane base on Android 8.1. (10/29)
 - Research the Tensorflow Operation of GPU speed up. (10/30~11/01)
@@ -12722,130 +12439,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest reliability.
-- Mechanical arm AutoIT method.
-- CI Sourcing.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -13175,8 +12768,301 @@
       </rPr>
       <t xml:space="preserve">
 - Implement the catch code of WDS log from PXE Server. (11/18~11/20)
+- Coding the application evtx to txt code. (11/19)
+- Coding the operation evtx to txt code. (11/20)
+- Make sure the WDS installation start time and end time for one cycle. (11/19)
+- ProgramIndex Research. (11/20~11/22)
+- Design the ProgramIndex icon and function location. (11/21~11/22)
 - BurnInTest Research. (11/18~11/19)
-- ProgramIndex Research. (11/20~11/22)</t>
+- Try to run the BurnInTest of load testing and search the log result. (11/21)
+- Design the UI control base on BurnInTest feasibility and log result display. (11/22)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.
+- CI Sourcing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13778,7 +13664,7 @@
         <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -13790,7 +13676,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -13843,13 +13729,13 @@
         <v>143</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13857,10 +13743,10 @@
         <v>144</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -13872,7 +13758,7 @@
         <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -13881,10 +13767,10 @@
         <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D6" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12905,6 +12905,132 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -13062,7 +13188,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- none</t>
+- Coding the timer read and writing base on application and operation log. (11/25~11/26)
+- Implement the three pxe server build. (11/27)
+- Airplane for windows resolution. (11/28)
+- BurnInTest USB AutoRun. (11/29)
+- ProgramIndex Design. (11/29)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13691,7 +13821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13767,10 +13899,10 @@
         <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -13189,6 +13189,7 @@
       </rPr>
       <t xml:space="preserve">
 - Coding the timer read and writing base on application and operation log. (11/25~11/26)
+- Finished the WDS other DUT system environment setting. (11/26)
 - Implement the three pxe server build. (11/27)
 - Airplane for windows resolution. (11/28)
 - BurnInTest USB AutoRun. (11/29)
@@ -13822,7 +13823,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -13190,10 +13190,12 @@
       <t xml:space="preserve">
 - Coding the timer read and writing base on application and operation log. (11/25~11/26)
 - Finished the WDS other DUT system environment setting. (11/26)
+- Setting the ubuntu OS base on window system. (11/27~11/28)
 - Implement the three pxe server build. (11/27)
 - Airplane for windows resolution. (11/28)
-- BurnInTest USB AutoRun. (11/29)
-- ProgramIndex Design. (11/29)</t>
+- Continuou intergration base on Ubuntu 18.04 environment setting. (11/28)
+- Study the BurnInTest USB AutoRun documnet. (11/29)
+- ProgramIndex Design by PyQT User interface. (11/29)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13822,9 +13824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -12610,6 +12610,256 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest reliability.
+- Mechanical arm AutoIT method.
+- CI Sourcing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -12781,256 +13031,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest reliability.
-- Mechanical arm AutoIT method.
-- CI Sourcing.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest for the quicktest.
-- Mechanical arm AutoIT method.
-- CI Sourcing.
-- Prepare the test automation report for Q1.
-- Airplane on/off for windows of other resolution.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -13194,6 +13194,7 @@
 - Implement the three pxe server build. (11/27)
 - Airplane for windows resolution. (11/28)
 - Continuou intergration base on Ubuntu 18.04 environment setting. (11/28)
+- Set the ubuntu 18.04 environment base on windows x64 os. (11/29)
 - Study the BurnInTest USB AutoRun documnet. (11/29)
 - ProgramIndex Design by PyQT User interface. (11/29)</t>
     </r>
@@ -13824,7 +13825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13888,10 +13891,10 @@
         <v>145</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -13900,7 +13903,7 @@
         <v>146</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>157</v>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="2019_September" sheetId="15" r:id="rId9"/>
     <sheet name="2019_October" sheetId="16" r:id="rId10"/>
     <sheet name="2019_November" sheetId="18" r:id="rId11"/>
+    <sheet name="2019_December" sheetId="19" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="168">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12855,6 +12856,771 @@
 - CI Sourcing.
 - Prepare the test automation report for Q1.
 - Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/02~2019/12/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/09~2019/12/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/16~2019/12/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/23~2019/12/27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/02 Take day off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Take a day off. (12/02)
+- Verify the GSM-210 auto test base on Android 8.1 for ethernet RJ-45 test. (12/03)
+- Support Willie for the GSM-210 manual test by the COM port problem. (12/03)
+- Run the resolution code on the GSM-210 resolution test. (12/03)
+- Make sure the PXE code on the operation txt and application txt data. (12/04)
+- Try to resolve the pxe code for "error" read and write error. (12/04)
+- Make sure the PXE Server log export date. (12/04)
+- Study the Postman &amp; Jenkins &amp; Github application for chapter 1, 2 for postman. (12/05)
+- Prepare the test automation report for Q1. (12/06)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Coding the ProgramIndex by PyQT form. (12/09~12/13)
+- Build the CI Sourcing resoure. (12/10~12/12)
+- BurnInTest USB Flash Driver running research. (12/09~12/11)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13294,7 +14060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13347,6 +14113,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13664,26 +14436,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -13715,9 +14487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13825,9 +14595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13894,7 +14662,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -13906,7 +14674,100 @@
         <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="105.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>157</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -13933,26 +14794,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -14039,26 +14900,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -14329,9 +15190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14519,9 +15378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14626,9 +15483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -13618,171 +13618,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Coding the ProgramIndex by PyQT form. (12/09~12/13)
-- Build the CI Sourcing resoure. (12/10~12/12)
-- BurnInTest USB Flash Driver running research. (12/09~12/11)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 - Implement the catch code of WDS log from PXE Server. (11/18~11/20)
 - Coding the application evtx to txt code. (11/19)
 - Coding the operation evtx to txt code. (11/20)
@@ -13963,6 +13798,176 @@
 - Set the ubuntu 18.04 environment base on windows x64 os. (11/29)
 - Study the BurnInTest USB AutoRun documnet. (11/29)
 - ProgramIndex Design by PyQT User interface. (11/29)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Coding the ProgramIndex by PyQT form. (12/09~12/13)
+- Coding the window command for airplane mode on/off by sikuli API. (12/09)
+- Writing the test script by sikuli tools for sikuli-IDE platform. (12/10)
+- BurnInTest USB Flash Driver running research. (12/09~12/11)
+- Study the windows to GO for burnintest document. (12/11)
+- Study the Burnintest sample code for test script. (12/12)
+- Build the CI Sourcing requirement. (12/13)
+- Try to run android 8.1 for adb command line code. (12/12~12/13)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14115,10 +14120,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14436,26 +14441,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -14662,7 +14667,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -14674,7 +14679,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -14722,7 +14727,7 @@
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -14743,7 +14748,7 @@
         <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -14794,26 +14799,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -14900,26 +14905,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="172">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13802,6 +13802,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -13968,6 +14224,173 @@
 - Study the Burnintest sample code for test script. (12/12)
 - Build the CI Sourcing requirement. (12/13)
 - Try to run android 8.1 for adb command line code. (12/12~12/13)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Implement the auto installation by PXE of time zone issue. (12/16)
+- Implement the airplane mode on/off by windows commmand issue. (12/17)
+- Make sure the sikuli api can be used for airplane mode on/off program. (12/18)
+- Support Sharon of the AIM DUT auto test by the airplane mode on/off via Ethernet. (12/19)
+- Prepare the test automation report for Q1 demo. (12/20)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14706,7 +15129,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -14745,10 +15168,10 @@
         <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -14757,10 +15180,10 @@
         <v>158</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -12991,289 +12991,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 - Auto Installation by PXE Server static ip address.
 - ProgrammingIndex by PyQT.
 - PassMark for BurnInTest for the quicktest.
@@ -13933,132 +13650,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Auto Installation by PXE Server static ip address.
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest for the quicktest.
-- Mechanical arm AutoIT method.
-- CI Sourcing.
-- Prepare the test automation report for Q1.
-- Airplane on/off for windows of other resolution.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -14229,6 +13820,257 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Auto Installation by PXE Server static ip address.
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -14390,7 +14232,177 @@
 - Implement the airplane mode on/off by windows commmand issue. (12/17)
 - Make sure the sikuli api can be used for airplane mode on/off program. (12/18)
 - Support Sharon of the AIM DUT auto test by the airplane mode on/off via Ethernet. (12/19)
-- Prepare the test automation report for Q1 demo. (12/20)</t>
+- Burnintest research for setting the .bitcfg parameter set. (12/16~12/18)
+- Burnintest install to the USB drive. (12/18)
+- Burnintest for write bat data to execute and archieve the log of txt and htm. (12/19)
+- Burnintest for archieve under the system drive and force delete the C:\ log by administrator. (12/20)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Implement the sikuli API for Airplane on/off for windows of other resolution. (12/23~12/24)
+- Write the sop of burnintest quicktest test. (12/23)
+- Burnintest for discuss with the test case of loading test. (12/24)
+- Prepare the test automation report for Q1. (12/25)
+- Try to connect the FTP server by local of programindex code. (12/26~12/27)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15090,7 +15102,7 @@
         <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -15102,7 +15114,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -15129,7 +15141,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -15154,13 +15166,13 @@
         <v>156</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15168,10 +15180,10 @@
         <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -15180,10 +15192,10 @@
         <v>158</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -15192,10 +15204,10 @@
         <v>159</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D6" s="1"/>
     </row>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -14400,6 +14400,7 @@
       <t xml:space="preserve">
 - Implement the sikuli API for Airplane on/off for windows of other resolution. (12/23~12/24)
 - Write the sop of burnintest quicktest test. (12/23)
+- Support Gary for the luminance test mothodology. (12/23)
 - Burnintest for discuss with the test case of loading test. (12/24)
 - Prepare the test automation report for Q1. (12/25)
 - Try to connect the FTP server by local of programindex code. (12/26~12/27)</t>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="2019_October" sheetId="16" r:id="rId10"/>
     <sheet name="2019_November" sheetId="18" r:id="rId11"/>
     <sheet name="2019_December" sheetId="19" r:id="rId12"/>
+    <sheet name="2020_January" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13946,131 +13947,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- ProgrammingIndex by PyQT.
-- PassMark for BurnInTest for the quicktest.
-- Mechanical arm AutoIT method.
-- CI Sourcing.
-- Prepare the test automation report for Q1.
-- Airplane on/off for windows of other resolution.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -14404,6 +14280,734 @@
 - Burnintest for discuss with the test case of loading test. (12/24)
 - Prepare the test automation report for Q1. (12/25)
 - Try to connect the FTP server by local of programindex code. (12/26~12/27)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- none</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12/30~2020/01/03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/06~2019/01/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/13~2019/01/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/20~2019/01/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/01/27~2019/01/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- ProgrammingIndex by PyQT.
+- PassMark for BurnInTest for the quicktest.
+- Mechanical arm AutoIT method.
+- CI Sourcing.
+- Prepare the test automation report for Q1.
+- Airplane on/off for windows of other resolution.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01/01 Holiday.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Airplane on/off for windows of other resolution.
+- PassMark for BurnInTest for the quicktest.
+- Prepare the test automation report for Q1.
+- ProgrammingIndex by PyQT.
+- Continuous Intergration Sourcing.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Windows to Go installation for burnintest test methodology. (12/30~12/31)
+- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
+- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
+- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
+- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14501,7 +15105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14557,6 +15161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14877,26 +15484,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -15129,7 +15736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15196,7 +15803,7 @@
         <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -15205,12 +15812,117 @@
         <v>159</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="105.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="387" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15235,26 +15947,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -15341,26 +16053,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14716,6 +14716,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Windows to Go installation for burnintest test methodology. (12/30~12/31)
+- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
+- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
+- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
+- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">A. Ongoing Project
 </t>
@@ -14841,7 +15012,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
+    <t>01/06 Take a day off.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -15003,11 +15174,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Windows to Go installation for burnintest test methodology. (12/30~12/31)
-- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
-- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
-- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
-- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
+- none</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15829,7 +15996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15842,7 +16011,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -15867,10 +16036,10 @@
         <v>173</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>179</v>
@@ -15881,12 +16050,14 @@
         <v>174</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -15017,6 +15017,130 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">A. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Planning Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. Meeting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Airplane on/off for windows of other resolution.
+- Prepare the test automation report for Q1.
+- ProgrammingIndex by PyQT.
+- Continuous Intergration Sourcing.
+- Mechanical arm AutoIT method.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -15174,7 +15298,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- none</t>
+- Coding the ARP clean code to run auto test for sikuli windows. (01/07~01/08)
+- Modify the test automation report for Q1 demo document. (01/09)
+- Coding the programindex code. (01/10)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15996,9 +16122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16050,10 +16174,10 @@
         <v>174</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>183</v>

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -14721,173 +14721,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Windows to Go installation for burnintest test methodology. (12/30~12/31)
-- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
-- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
-- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
-- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A. Ongoing Project
 </t>
     </r>
@@ -15301,6 +15134,173 @@
 - Coding the ARP clean code to run auto test for sikuli windows. (01/07~01/08)
 - Modify the test automation report for Q1 demo document. (01/09)
 - Coding the programindex code. (01/10)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A. Finished
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- none</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. Ongoing Project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Report
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. Meeting
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">none
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. Other</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Windows to Go installation for burnintest test methodology. (12/30~12/31)
+- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
+- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
+- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
+- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -16160,10 +16160,10 @@
         <v>173</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>179</v>
@@ -16174,13 +16174,13 @@
         <v>174</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/kpi/ZL_2019 DQA Weekly Report.xlsx
+++ b/kpi/ZL_2019 DQA Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="375" yWindow="1230" windowWidth="19395" windowHeight="7335" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="2019_October" sheetId="16" r:id="rId10"/>
     <sheet name="2019_November" sheetId="18" r:id="rId11"/>
     <sheet name="2019_December" sheetId="19" r:id="rId12"/>
-    <sheet name="2020_January" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="172">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14285,309 +14284,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- none</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/12/30~2020/01/03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/01/06~2019/01/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/01/13~2019/01/17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/01/20~2019/01/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/01/27~2019/01/31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A. Ongoing Project
 </t>
     </r>
@@ -14708,599 +14404,6 @@
 - CI Sourcing.
 - Prepare the test automation report for Q1.
 - Airplane on/off for windows of other resolution.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/01 Holiday.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Airplane on/off for windows of other resolution.
-- PassMark for BurnInTest for the quicktest.
-- Prepare the test automation report for Q1.
-- ProgrammingIndex by PyQT.
-- Continuous Intergration Sourcing.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01/06 Take a day off.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Planning Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-D. Meeting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Airplane on/off for windows of other resolution.
-- Prepare the test automation report for Q1.
-- ProgrammingIndex by PyQT.
-- Continuous Intergration Sourcing.
-- Mechanical arm AutoIT method.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Coding the ARP clean code to run auto test for sikuli windows. (01/07~01/08)
-- Modify the test automation report for Q1 demo document. (01/09)
-- Coding the programindex code. (01/10)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A. Finished
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- none</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. Ongoing Project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C. Report
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">D. Meeting
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">none
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E. Other</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Windows to Go installation for burnintest test methodology. (12/30~12/31)
-- Windows to Go for USB 3.1 and make sure the auto burnintest should be works. (12/30~12/31)
-- Verify the airplane mode auto test for UTC 5's DUT and connect the Cisco IP address. (01/02)
-- Verifyt the airplane mode auto test for Tobbi's DUT and connect the Cisco IP address. (01/03)
-- Prove the airplane on/off fail rate is a issue of AP or DUT device. (01/02~01/03)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15398,7 +14501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15454,9 +14557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15777,26 +14877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -16029,7 +15129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16105,119 +15205,12 @@
         <v>159</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="105.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="387" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16242,26 +15235,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -16348,26 +15341,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
